--- a/dtpu_configurations/only_integer32/100mhz/mxu_7x7/power.xlsx
+++ b/dtpu_configurations/only_integer32/100mhz/mxu_7x7/power.xlsx
@@ -127,7 +127,7 @@
     <col min="3" max="3" width="9.84375" customWidth="true"/>
     <col min="4" max="4" width="8.75" customWidth="true"/>
     <col min="5" max="5" width="8.75" customWidth="true"/>
-    <col min="6" max="6" width="10.3125" customWidth="true"/>
+    <col min="6" max="6" width="8.75" customWidth="true"/>
     <col min="7" max="7" width="8.75" customWidth="true"/>
     <col min="8" max="8" width="8.75" customWidth="true"/>
     <col min="9" max="9" width="8.75" customWidth="true"/>
@@ -175,19 +175,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.04355292767286301</v>
+        <v>0.0611359179019928</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.019005440175533295</v>
+        <v>0.023897390812635422</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>0.014094091020524502</v>
+        <v>0.017402803525328636</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>0.012927097268402576</v>
+        <v>0.013424374163150787</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>2.7822941774502397E-4</v>
+        <v>0.004183834418654442</v>
       </c>
       <c r="G2" t="n" s="4">
         <v>0.0044669522903859615</v>
@@ -199,10 +199,10 @@
         <v>1.2619483470916748</v>
       </c>
       <c r="J2" t="n" s="4">
-        <v>0.12732814252376556</v>
+        <v>0.1280938684940338</v>
       </c>
       <c r="K2" t="n" s="4">
-        <v>1.4855543375015259</v>
+        <v>1.516506552696228</v>
       </c>
     </row>
   </sheetData>
